--- a/data/trans_dic/IP18A02-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP18A02-Edad-trans_dic.xlsx
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>9,12%</t>
+          <t>13,51%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>10,23%</t>
+          <t>14,76%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>9,32%</t>
+          <t>15,2%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>17,19%</t>
+          <t>13,14%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>12,48%</t>
+          <t>22,47%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>9,59%</t>
+          <t>20,39%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>8,75%</t>
+          <t>15,04%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>15,63%</t>
+          <t>14,29%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>10,77%</t>
+          <t>17,8%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>9,92%</t>
+          <t>17,51%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>9,04%</t>
+          <t>15,12%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>16,55%</t>
+          <t>13,68%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,4; 12,22</t>
+          <t>9,81; 17,44</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,75; 14,44</t>
+          <t>11,25; 18,93</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,5; 12,95</t>
+          <t>11,5; 19,49</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,02; 26,94</t>
+          <t>5,42; 26,02</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>9,44; 16,87</t>
+          <t>18,06; 27,62</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,96; 13,24</t>
+          <t>15,42; 24,67</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,1; 12,34</t>
+          <t>11,33; 19,35</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,9; 28,54</t>
+          <t>6,32; 28,27</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>8,61; 13,37</t>
+          <t>15,14; 21,18</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7,68; 12,31</t>
+          <t>14,56; 20,57</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>7,03; 11,47</t>
+          <t>12,51; 18,1</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>11,02; 24,22</t>
+          <t>7,58; 22,12</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>13,51%</t>
+          <t>9,12%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>14,76%</t>
+          <t>10,23%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>15,2%</t>
+          <t>9,32%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>13,14%</t>
+          <t>17,19%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>22,47%</t>
+          <t>12,48%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>20,39%</t>
+          <t>9,59%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>15,04%</t>
+          <t>8,75%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>14,29%</t>
+          <t>15,63%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>17,8%</t>
+          <t>10,77%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>17,51%</t>
+          <t>9,92%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>15,12%</t>
+          <t>9,04%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>13,68%</t>
+          <t>16,55%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,81; 17,44</t>
+          <t>6,4; 12,22</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11,25; 18,93</t>
+          <t>7,75; 14,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11,5; 19,49</t>
+          <t>6,5; 12,95</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,42; 26,02</t>
+          <t>9,02; 26,94</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>18,06; 27,62</t>
+          <t>9,44; 16,87</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>15,42; 24,67</t>
+          <t>6,96; 13,24</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>11,33; 19,35</t>
+          <t>6,1; 12,34</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,32; 28,27</t>
+          <t>6,9; 28,54</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>15,14; 21,18</t>
+          <t>8,61; 13,37</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>14,56; 20,57</t>
+          <t>7,68; 12,31</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>12,51; 18,1</t>
+          <t>7,03; 11,47</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>7,58; 22,12</t>
+          <t>11,02; 24,22</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP18A02-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP18A02-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>39,6%</t>
+          <t>47,51%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>32,3%</t>
+          <t>37,9%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>36,87%</t>
+          <t>43,91%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>35,02%</t>
+          <t>43,52%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>36,13%</t>
+          <t>41,51%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>34,19%</t>
+          <t>40,64%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>36,11%</t>
+          <t>44,63%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>36,13%</t>
+          <t>46,24%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>37,88%</t>
+          <t>44,59%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>33,21%</t>
+          <t>39,26%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>36,5%</t>
+          <t>44,29%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>35,52%</t>
+          <t>44,82%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>34,33; 45,43</t>
+          <t>40,08; 55,19</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>27,43; 37,81</t>
+          <t>31,24; 45,06</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>31,08; 42,3</t>
+          <t>36,87; 51,26</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>22,38; 49,07</t>
+          <t>26,87; 60,98</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>30,72; 42,26</t>
+          <t>34,89; 49,82</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>28,85; 39,12</t>
+          <t>33,91; 48,33</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>30,51; 41,53</t>
+          <t>37,78; 51,78</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>22,83; 51,94</t>
+          <t>29,69; 63,51</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>34,0; 41,62</t>
+          <t>39,0; 50,11</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>29,6; 36,67</t>
+          <t>34,51; 44,38</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>32,79; 40,34</t>
+          <t>39,28; 49,34</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>25,68; 46,04</t>
+          <t>32,31; 56,28</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>13,51%</t>
+          <t>20,62%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>14,76%</t>
+          <t>18,14%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>15,2%</t>
+          <t>20,35%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>13,14%</t>
+          <t>15,44%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>22,47%</t>
+          <t>26,59%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>20,39%</t>
+          <t>21,0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>15,04%</t>
+          <t>17,11%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>14,29%</t>
+          <t>12,73%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>17,8%</t>
+          <t>23,59%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>17,51%</t>
+          <t>19,47%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>15,12%</t>
+          <t>18,89%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>13,68%</t>
+          <t>14,19%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,81; 17,44</t>
+          <t>16,78; 25,17</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,25; 18,93</t>
+          <t>14,48; 22,58</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,5; 19,49</t>
+          <t>16,45; 24,64</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,42; 26,02</t>
+          <t>6,69; 27,21</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>18,06; 27,62</t>
+          <t>22,52; 31,69</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>15,42; 24,67</t>
+          <t>16,87; 25,78</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,33; 19,35</t>
+          <t>13,31; 21,62</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,32; 28,27</t>
+          <t>5,14; 26,07</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>15,14; 21,18</t>
+          <t>20,5; 26,87</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>14,56; 20,57</t>
+          <t>16,59; 22,87</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>12,51; 18,1</t>
+          <t>16,06; 22,08</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>7,58; 22,12</t>
+          <t>8,19; 23,96</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>9,12%</t>
+          <t>13,77%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>10,23%</t>
+          <t>12,48%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>9,32%</t>
+          <t>9,35%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>17,19%</t>
+          <t>13,31%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>12,48%</t>
+          <t>18,84%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>9,59%</t>
+          <t>13,86%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>8,75%</t>
+          <t>13,76%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>15,63%</t>
+          <t>12,56%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>10,77%</t>
+          <t>16,2%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>9,92%</t>
+          <t>13,17%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>9,04%</t>
+          <t>11,56%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>16,55%</t>
+          <t>12,96%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,4; 12,22</t>
+          <t>9,08; 19,18</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,75; 14,44</t>
+          <t>8,0; 17,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,5; 12,95</t>
+          <t>6,33; 13,35</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9,02; 26,94</t>
+          <t>5,13; 28,63</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,44; 16,87</t>
+          <t>13,12; 24,89</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,96; 13,24</t>
+          <t>9,35; 18,87</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,1; 12,34</t>
+          <t>9,64; 19,18</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,9; 28,54</t>
+          <t>4,78; 28,13</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>8,61; 13,37</t>
+          <t>12,63; 20,51</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,68; 12,31</t>
+          <t>10,21; 16,74</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>7,03; 11,47</t>
+          <t>8,92; 14,44</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>11,02; 24,22</t>
+          <t>7,03; 22,52</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>20,28%</t>
+          <t>6,78%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>18,91%</t>
+          <t>9,4%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>19,56%</t>
+          <t>10,48%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>19,85%</t>
+          <t>18,74%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>23,35%</t>
+          <t>10,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>21,09%</t>
+          <t>10,24%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>19,04%</t>
+          <t>5,87%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>19,82%</t>
+          <t>19,35%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>21,78%</t>
+          <t>8,35%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>19,96%</t>
+          <t>9,81%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>19,31%</t>
+          <t>8,15%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>19,84%</t>
+          <t>18,97%</t>
         </is>
       </c>
     </row>
@@ -1144,68 +1144,216 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>17,59; 22,95</t>
+          <t>4,14; 10,28</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>16,73; 21,33</t>
+          <t>6,07; 13,69</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,21; 22,19</t>
+          <t>6,46; 15,08</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>14,61; 26,85</t>
+          <t>8,7; 30,57</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>20,49; 26,14</t>
+          <t>6,63; 14,61</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>18,62; 23,67</t>
+          <t>6,45; 14,89</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>16,35; 21,45</t>
+          <t>3,23; 9,55</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>13,48; 26,67</t>
+          <t>7,86; 37,42</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>19,89; 23,62</t>
+          <t>6,25; 11,07</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>18,19; 21,91</t>
+          <t>7,39; 12,94</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>17,69; 21,03</t>
+          <t>5,82; 11,15</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>15,76; 24,51</t>
+          <t>10,78; 29,96</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>20,28%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>18,91%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>19,56%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>19,85%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>23,35%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>21,09%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>19,04%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>19,82%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>21,78%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>19,96%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>19,31%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>19,84%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>17,89; 23,05</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>16,49; 21,3</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>16,94; 22,04</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>14,88; 26,45</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>20,77; 26,34</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>18,56; 23,84</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>16,45; 21,48</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>14,2; 28,13</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>20,01; 23,79</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>18,04; 21,65</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>17,49; 21,1</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>15,68; 24,52</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>

--- a/data/trans_dic/IP18A02-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP18A02-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>40,08; 55,19</t>
+          <t>39,53; 55,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>31,24; 45,06</t>
+          <t>31,71; 45,12</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>36,87; 51,26</t>
+          <t>36,39; 50,83</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>26,87; 60,98</t>
+          <t>27,66; 59,55</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>34,89; 49,82</t>
+          <t>34,23; 49,47</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>33,91; 48,33</t>
+          <t>34,15; 47,75</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>37,78; 51,78</t>
+          <t>37,66; 51,98</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>29,69; 63,51</t>
+          <t>28,29; 64,5</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>39,0; 50,11</t>
+          <t>39,3; 49,64</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>34,51; 44,38</t>
+          <t>34,83; 44,32</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>39,28; 49,34</t>
+          <t>39,85; 49,22</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>32,31; 56,28</t>
+          <t>32,25; 56,37</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>16,78; 25,17</t>
+          <t>16,71; 25,19</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>14,48; 22,58</t>
+          <t>14,76; 22,45</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>16,45; 24,64</t>
+          <t>16,59; 24,78</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,69; 27,21</t>
+          <t>7,07; 27,3</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>22,52; 31,69</t>
+          <t>22,25; 31,31</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>16,87; 25,78</t>
+          <t>16,79; 26,36</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>13,31; 21,62</t>
+          <t>13,29; 22,11</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,14; 26,07</t>
+          <t>4,19; 25,22</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>20,5; 26,87</t>
+          <t>20,44; 26,35</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>16,59; 22,87</t>
+          <t>16,66; 22,64</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>16,06; 22,08</t>
+          <t>15,99; 22,1</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>8,19; 23,96</t>
+          <t>7,9; 22,92</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,08; 19,18</t>
+          <t>9,27; 19,22</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,0; 17,0</t>
+          <t>8,37; 17,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,33; 13,35</t>
+          <t>5,91; 13,79</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,13; 28,63</t>
+          <t>5,32; 25,62</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>13,12; 24,89</t>
+          <t>13,46; 25,11</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,35; 18,87</t>
+          <t>9,78; 19,45</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,64; 19,18</t>
+          <t>9,7; 18,91</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,78; 28,13</t>
+          <t>4,43; 26,84</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>12,63; 20,51</t>
+          <t>12,58; 20,08</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>10,21; 16,74</t>
+          <t>10,18; 16,7</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>8,92; 14,44</t>
+          <t>8,96; 14,69</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>7,03; 22,52</t>
+          <t>7,04; 22,51</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,14; 10,28</t>
+          <t>4,15; 10,49</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,07; 13,69</t>
+          <t>6,23; 13,84</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,46; 15,08</t>
+          <t>6,62; 15,29</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,7; 30,57</t>
+          <t>9,38; 34,14</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,63; 14,61</t>
+          <t>6,53; 14,23</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,45; 14,89</t>
+          <t>6,63; 14,94</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,23; 9,55</t>
+          <t>3,02; 9,39</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,86; 37,42</t>
+          <t>7,05; 37,47</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,25; 11,07</t>
+          <t>6,13; 11,18</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>7,39; 12,94</t>
+          <t>7,3; 12,99</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>5,82; 11,15</t>
+          <t>5,76; 11,12</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>10,78; 29,96</t>
+          <t>11,63; 28,53</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>17,89; 23,05</t>
+          <t>17,64; 22,79</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16,49; 21,3</t>
+          <t>16,55; 21,24</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>16,94; 22,04</t>
+          <t>17,15; 21,95</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>14,88; 26,45</t>
+          <t>14,38; 25,85</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>20,77; 26,34</t>
+          <t>20,72; 26,16</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>18,56; 23,84</t>
+          <t>18,6; 23,74</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>16,45; 21,48</t>
+          <t>16,56; 21,22</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>14,2; 28,13</t>
+          <t>14,09; 27,41</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>20,01; 23,79</t>
+          <t>19,7; 23,67</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>18,04; 21,65</t>
+          <t>18,12; 21,67</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>17,49; 21,1</t>
+          <t>17,42; 21,06</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>15,68; 24,52</t>
+          <t>15,57; 24,18</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP18A02-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP18A02-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -656,42 +656,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>41,51%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>40,64%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>44,63%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>46,49%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>47,51%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>37,9%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>43,91%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>43,52%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>41,51%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>40,64%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>44,63%</t>
-        </is>
-      </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>46,24%</t>
+          <t>41,86%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>44,82%</t>
+          <t>44,03%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>39,53; 55,12</t>
+          <t>34,36; 49,46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>31,71; 45,12</t>
+          <t>34,2; 47,55</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>36,39; 50,83</t>
+          <t>37,87; 51,24</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>27,66; 59,55</t>
+          <t>29,28; 63,68</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>34,23; 49,47</t>
+          <t>39,11; 55,25</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>34,15; 47,75</t>
+          <t>31,53; 44,85</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>37,66; 51,98</t>
+          <t>37,12; 51,93</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>28,29; 64,5</t>
+          <t>27,34; 58,31</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>39,3; 49,64</t>
+          <t>39,25; 50,47</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>34,83; 44,32</t>
+          <t>34,36; 44,09</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>39,85; 49,22</t>
+          <t>39,04; 49,7</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>32,25; 56,37</t>
+          <t>33,2; 57,82</t>
         </is>
       </c>
     </row>
@@ -796,42 +796,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>26,59%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>21,0%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>17,11%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>12,71%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>20,62%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>18,14%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>20,35%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>15,44%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>26,59%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>21,0%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>17,11%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>12,73%</t>
+          <t>14,97%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>14,19%</t>
+          <t>13,94%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>16,71; 25,19</t>
+          <t>22,52; 31,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>14,76; 22,45</t>
+          <t>16,89; 26,54</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>16,59; 24,78</t>
+          <t>13,24; 21,86</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,07; 27,3</t>
+          <t>5,48; 26,35</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>22,25; 31,31</t>
+          <t>16,83; 24,98</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>16,79; 26,36</t>
+          <t>14,37; 22,5</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>13,29; 22,11</t>
+          <t>16,06; 24,27</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,19; 25,22</t>
+          <t>7,18; 26,83</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>20,44; 26,35</t>
+          <t>20,5; 26,81</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>16,66; 22,64</t>
+          <t>16,73; 22,67</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>15,99; 22,1</t>
+          <t>16,3; 22,27</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>7,9; 22,92</t>
+          <t>8,1; 22,62</t>
         </is>
       </c>
     </row>
@@ -936,42 +936,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>18,84%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>13,86%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>13,76%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>11,37%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>13,77%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>12,48%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>9,35%</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>13,31%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>18,84%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>13,86%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>13,76%</t>
-        </is>
-      </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>12,56%</t>
+          <t>12,4%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>12,96%</t>
+          <t>11,93%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,27; 19,22</t>
+          <t>13,3; 25,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,37; 17,37</t>
+          <t>9,71; 19,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,91; 13,79</t>
+          <t>9,92; 18,33</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,32; 25,62</t>
+          <t>4,09; 23,8</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>13,46; 25,11</t>
+          <t>9,06; 19,05</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,78; 19,45</t>
+          <t>8,18; 17,28</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,7; 18,91</t>
+          <t>6,0; 13,71</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,43; 26,84</t>
+          <t>4,74; 24,77</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>12,58; 20,08</t>
+          <t>12,44; 20,23</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>10,18; 16,7</t>
+          <t>10,31; 16,75</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>8,96; 14,69</t>
+          <t>8,69; 14,63</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>7,04; 22,51</t>
+          <t>6,06; 21,0</t>
         </is>
       </c>
     </row>
@@ -1076,42 +1076,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>10,0%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>10,24%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>5,87%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>18,39%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>6,78%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>9,4%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>10,48%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>18,74%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>10,0%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>10,24%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>5,87%</t>
-        </is>
-      </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>19,35%</t>
+          <t>18,1%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>18,97%</t>
+          <t>18,2%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,15; 10,49</t>
+          <t>6,46; 14,18</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,23; 13,84</t>
+          <t>6,67; 14,93</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,62; 15,29</t>
+          <t>3,42; 9,87</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,38; 34,14</t>
+          <t>7,37; 37,26</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,53; 14,23</t>
+          <t>4,4; 10,49</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,63; 14,94</t>
+          <t>6,19; 13,59</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,02; 9,39</t>
+          <t>6,86; 15,53</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,05; 37,47</t>
+          <t>9,21; 31,25</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,13; 11,18</t>
+          <t>6,26; 11,15</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>7,3; 12,99</t>
+          <t>7,3; 12,76</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>5,76; 11,12</t>
+          <t>6,0; 11,4</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>11,63; 28,53</t>
+          <t>10,78; 27,08</t>
         </is>
       </c>
     </row>
@@ -1216,42 +1216,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>23,35%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>21,09%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>19,04%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>19,17%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>20,28%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>18,91%</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>19,56%</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>19,85%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>23,35%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>21,09%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>19,04%</t>
-        </is>
-      </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>19,82%</t>
+          <t>19,03%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>19,84%</t>
+          <t>19,09%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>17,64; 22,79</t>
+          <t>20,49; 26,14</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16,55; 21,24</t>
+          <t>18,62; 23,67</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>17,15; 21,95</t>
+          <t>16,35; 21,45</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>14,38; 25,85</t>
+          <t>13,06; 25,97</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>20,72; 26,16</t>
+          <t>17,59; 22,95</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>18,6; 23,74</t>
+          <t>16,73; 21,33</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>16,56; 21,22</t>
+          <t>17,21; 22,19</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>14,09; 27,41</t>
+          <t>13,95; 25,5</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>19,7; 23,67</t>
+          <t>19,89; 23,62</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>18,12; 21,67</t>
+          <t>18,19; 21,91</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>17,42; 21,06</t>
+          <t>17,69; 21,03</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>15,57; 24,18</t>
+          <t>15,12; 23,58</t>
         </is>
       </c>
     </row>
